--- a/Document/My Ais/T9/T9_Prod_MyAIS_APP_3PE_TH.xlsx
+++ b/Document/My Ais/T9/T9_Prod_MyAIS_APP_3PE_TH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PamNi\Work\2016\Automate\MyAIS\T9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1575" windowWidth="20115" windowHeight="6495" tabRatio="879" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1575" windowWidth="20115" windowHeight="6495" tabRatio="879" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Matrix" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="2149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="2159">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -23007,6 +23007,85 @@
       <t xml:space="preserve">
 - The 1 card</t>
     </r>
+  </si>
+  <si>
+    <t>F10 : Roaming Package (International Service)</t>
+  </si>
+  <si>
+    <t>F10_Package_2_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า บริการระหว่างประเทศ</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. เลือกเมนู "แพ็กเกจ"
+3. กดเมนู "บริการระหว่างประเทศ"
+4. ตรวจสอบหน้า "บริการระหว่างประเทศ"
+- บริการระหว่างประเทศ
+- เบอร์โทรศัพท์
+- บริการข้ามแดนอัตโนมัติ (IR)
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>F10_Package_2_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F10_Package_2_1_Y_3_2</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. เลือกเมนู "แพ็กเกจ"
+3. กดเมนู "บริการระหว่างประเทศ"
+4. กดเปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+5. ตรวจสอบ popup message "xxx"
+6. กด "ตกลง"
+7. ตรวจสอบ SMS "xxx"
+8. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบ popup message
+กรณี เปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg, sms ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบ popup message
+กรณี ปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg, sms ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. เลือกเมนู "แพ็กเกจ"
+3. กดเมนู "บริการระหว่างประเทศ"
+4. กดเปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+5. กด "ตกลง" (popup เปิด IR)
+6. กดปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+7. ตรวจสอบ popup message "xxx"
+8. กด "ตกลง"
+9. ตรวจสอบ SMS "xxx"
+10. จับภาพหน้าจอ</t>
   </si>
 </sst>
 </file>
@@ -24448,7 +24527,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="597">
+  <cellXfs count="599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -25707,20 +25786,117 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="77" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -25734,29 +25910,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -25785,124 +25943,32 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -25985,6 +26051,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -25997,41 +26079,93 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="23" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="24" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="22" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="22" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="22" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -26051,60 +26185,11 @@
     <xf numFmtId="0" fontId="67" fillId="22" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -29575,10 +29660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="468" t="s">
+      <c r="A1" s="523" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="468"/>
+      <c r="B1" s="523"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -29613,250 +29698,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="469" t="s">
+      <c r="A2" s="524" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="469" t="s">
+      <c r="B2" s="524" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="469" t="s">
+      <c r="C2" s="524" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="472" t="s">
+      <c r="D2" s="527" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="472"/>
-      <c r="F2" s="472"/>
-      <c r="G2" s="481" t="s">
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="493" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="482"/>
-      <c r="I2" s="482"/>
-      <c r="J2" s="483"/>
-      <c r="K2" s="499" t="s">
+      <c r="H2" s="494"/>
+      <c r="I2" s="494"/>
+      <c r="J2" s="499"/>
+      <c r="K2" s="487" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="499"/>
-      <c r="M2" s="481" t="s">
+      <c r="L2" s="487"/>
+      <c r="M2" s="493" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="482"/>
-      <c r="O2" s="483"/>
-      <c r="P2" s="481" t="s">
+      <c r="N2" s="494"/>
+      <c r="O2" s="499"/>
+      <c r="P2" s="493" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="483"/>
-      <c r="R2" s="481" t="s">
+      <c r="Q2" s="499"/>
+      <c r="R2" s="493" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="482"/>
-      <c r="T2" s="481" t="s">
+      <c r="S2" s="494"/>
+      <c r="T2" s="493" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="482"/>
-      <c r="V2" s="482"/>
-      <c r="W2" s="482"/>
-      <c r="X2" s="483"/>
-      <c r="Y2" s="481" t="s">
+      <c r="U2" s="494"/>
+      <c r="V2" s="494"/>
+      <c r="W2" s="494"/>
+      <c r="X2" s="499"/>
+      <c r="Y2" s="493" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="482"/>
-      <c r="AA2" s="482"/>
-      <c r="AB2" s="483"/>
-      <c r="AC2" s="475" t="s">
+      <c r="Z2" s="494"/>
+      <c r="AA2" s="494"/>
+      <c r="AB2" s="499"/>
+      <c r="AC2" s="508" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="476"/>
-      <c r="AE2" s="476"/>
-      <c r="AF2" s="491"/>
-      <c r="AG2" s="475" t="s">
+      <c r="AD2" s="509"/>
+      <c r="AE2" s="509"/>
+      <c r="AF2" s="518"/>
+      <c r="AG2" s="508" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="476"/>
-      <c r="AI2" s="476"/>
+      <c r="AH2" s="509"/>
+      <c r="AI2" s="509"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="470"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="470"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="472"/>
-      <c r="G3" s="477"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="499" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="527"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="487" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="499"/>
-      <c r="M3" s="477"/>
-      <c r="N3" s="478"/>
-      <c r="O3" s="484"/>
-      <c r="P3" s="477"/>
-      <c r="Q3" s="484"/>
-      <c r="R3" s="477"/>
-      <c r="S3" s="478"/>
-      <c r="T3" s="477"/>
-      <c r="U3" s="478"/>
-      <c r="V3" s="478"/>
-      <c r="W3" s="478"/>
-      <c r="X3" s="484"/>
-      <c r="Y3" s="477"/>
-      <c r="Z3" s="478"/>
-      <c r="AA3" s="478"/>
-      <c r="AB3" s="484"/>
-      <c r="AC3" s="477"/>
-      <c r="AD3" s="478"/>
-      <c r="AE3" s="478"/>
-      <c r="AF3" s="484"/>
-      <c r="AG3" s="477"/>
-      <c r="AH3" s="478"/>
-      <c r="AI3" s="478"/>
+      <c r="L3" s="487"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="500"/>
+      <c r="P3" s="495"/>
+      <c r="Q3" s="500"/>
+      <c r="R3" s="495"/>
+      <c r="S3" s="496"/>
+      <c r="T3" s="495"/>
+      <c r="U3" s="496"/>
+      <c r="V3" s="496"/>
+      <c r="W3" s="496"/>
+      <c r="X3" s="500"/>
+      <c r="Y3" s="495"/>
+      <c r="Z3" s="496"/>
+      <c r="AA3" s="496"/>
+      <c r="AB3" s="500"/>
+      <c r="AC3" s="495"/>
+      <c r="AD3" s="496"/>
+      <c r="AE3" s="496"/>
+      <c r="AF3" s="500"/>
+      <c r="AG3" s="495"/>
+      <c r="AH3" s="496"/>
+      <c r="AI3" s="496"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="470"/>
-      <c r="B4" s="470"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="473" t="s">
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
+      <c r="D4" s="506" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="473" t="s">
+      <c r="E4" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="473" t="s">
+      <c r="F4" s="506" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="497" t="s">
+      <c r="G4" s="504" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="497" t="s">
+      <c r="H4" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="497" t="s">
+      <c r="I4" s="504" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="497" t="s">
+      <c r="J4" s="504" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="500" t="s">
+      <c r="K4" s="488" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="500" t="s">
+      <c r="L4" s="488" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="502" t="s">
+      <c r="M4" s="490" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="502" t="s">
+      <c r="N4" s="490" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="506" t="s">
+      <c r="O4" s="501" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="507" t="s">
+      <c r="P4" s="502" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="507" t="s">
+      <c r="Q4" s="502" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="504" t="s">
+      <c r="R4" s="497" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="504" t="s">
+      <c r="S4" s="497" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="479" t="s">
+      <c r="T4" s="510" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="495" t="s">
+      <c r="U4" s="521" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="496"/>
-      <c r="W4" s="494" t="s">
+      <c r="V4" s="522"/>
+      <c r="W4" s="492" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="494" t="s">
+      <c r="X4" s="492" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="485" t="s">
+      <c r="Y4" s="512" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="485" t="s">
+      <c r="Z4" s="512" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="489" t="s">
+      <c r="AA4" s="516" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="490"/>
-      <c r="AC4" s="487" t="s">
+      <c r="AB4" s="517"/>
+      <c r="AC4" s="514" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="487" t="s">
+      <c r="AD4" s="514" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="492" t="s">
+      <c r="AE4" s="519" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="493"/>
-      <c r="AG4" s="473" t="s">
+      <c r="AF4" s="520"/>
+      <c r="AG4" s="506" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="473" t="s">
+      <c r="AH4" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="473" t="s">
+      <c r="AI4" s="506" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="471"/>
-      <c r="B5" s="471"/>
-      <c r="C5" s="471"/>
-      <c r="D5" s="474"/>
-      <c r="E5" s="474"/>
-      <c r="F5" s="474"/>
-      <c r="G5" s="498"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="498"/>
-      <c r="J5" s="498"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="501"/>
-      <c r="M5" s="503"/>
-      <c r="N5" s="503"/>
-      <c r="O5" s="503"/>
-      <c r="P5" s="508"/>
-      <c r="Q5" s="508"/>
-      <c r="R5" s="505"/>
-      <c r="S5" s="505"/>
-      <c r="T5" s="480"/>
+      <c r="A5" s="526"/>
+      <c r="B5" s="526"/>
+      <c r="C5" s="526"/>
+      <c r="D5" s="507"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="505"/>
+      <c r="J5" s="505"/>
+      <c r="K5" s="489"/>
+      <c r="L5" s="489"/>
+      <c r="M5" s="491"/>
+      <c r="N5" s="491"/>
+      <c r="O5" s="491"/>
+      <c r="P5" s="503"/>
+      <c r="Q5" s="503"/>
+      <c r="R5" s="498"/>
+      <c r="S5" s="498"/>
+      <c r="T5" s="511"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="494"/>
-      <c r="X5" s="494"/>
-      <c r="Y5" s="486"/>
-      <c r="Z5" s="486"/>
+      <c r="W5" s="492"/>
+      <c r="X5" s="492"/>
+      <c r="Y5" s="513"/>
+      <c r="Z5" s="513"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="488"/>
-      <c r="AD5" s="488"/>
+      <c r="AC5" s="515"/>
+      <c r="AD5" s="515"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="474"/>
-      <c r="AH5" s="474"/>
-      <c r="AI5" s="474"/>
+      <c r="AG5" s="507"/>
+      <c r="AH5" s="507"/>
+      <c r="AI5" s="507"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -30119,26 +30204,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -30155,14 +30228,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30197,98 +30282,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="566" t="s">
+      <c r="A1" s="588" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="564" t="s">
+      <c r="B1" s="587" t="s">
         <v>1005</v>
       </c>
-      <c r="C1" s="564" t="s">
+      <c r="C1" s="587" t="s">
         <v>1006</v>
       </c>
-      <c r="D1" s="564" t="s">
+      <c r="D1" s="587" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="564" t="s">
+      <c r="E1" s="587" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="564" t="s">
+      <c r="F1" s="587" t="s">
         <v>1007</v>
       </c>
-      <c r="G1" s="564" t="s">
+      <c r="G1" s="587" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="564" t="s">
+      <c r="H1" s="587" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="564" t="s">
+      <c r="I1" s="587" t="s">
         <v>1008</v>
       </c>
-      <c r="J1" s="564" t="s">
+      <c r="J1" s="587" t="s">
         <v>1009</v>
       </c>
-      <c r="K1" s="564" t="s">
+      <c r="K1" s="587" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="564" t="s">
+      <c r="L1" s="587" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="569" t="s">
+      <c r="M1" s="583" t="s">
         <v>1010</v>
       </c>
-      <c r="N1" s="557" t="s">
+      <c r="N1" s="585" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="565"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="565"/>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="565"/>
-      <c r="I2" s="565"/>
-      <c r="J2" s="565"/>
-      <c r="K2" s="565"/>
-      <c r="L2" s="565"/>
-      <c r="M2" s="565"/>
-      <c r="N2" s="558"/>
+      <c r="A2" s="584"/>
+      <c r="B2" s="584"/>
+      <c r="C2" s="584"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="584"/>
+      <c r="F2" s="584"/>
+      <c r="G2" s="584"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="584"/>
+      <c r="J2" s="584"/>
+      <c r="K2" s="584"/>
+      <c r="L2" s="584"/>
+      <c r="M2" s="584"/>
+      <c r="N2" s="578"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="559" t="s">
+      <c r="A3" s="580" t="s">
         <v>1012</v>
       </c>
-      <c r="B3" s="560"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="560"/>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="560"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="560"/>
-      <c r="K3" s="560"/>
-      <c r="L3" s="561"/>
+      <c r="B3" s="581"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="581"/>
+      <c r="E3" s="581"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="581"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="233"/>
       <c r="N3" s="234"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="562" t="s">
+      <c r="A4" s="586" t="s">
         <v>1013</v>
       </c>
-      <c r="B4" s="560"/>
-      <c r="C4" s="560"/>
-      <c r="D4" s="560"/>
-      <c r="E4" s="560"/>
-      <c r="F4" s="560"/>
-      <c r="G4" s="560"/>
-      <c r="H4" s="560"/>
-      <c r="I4" s="560"/>
-      <c r="J4" s="560"/>
-      <c r="K4" s="560"/>
-      <c r="L4" s="561"/>
+      <c r="B4" s="581"/>
+      <c r="C4" s="581"/>
+      <c r="D4" s="581"/>
+      <c r="E4" s="581"/>
+      <c r="F4" s="581"/>
+      <c r="G4" s="581"/>
+      <c r="H4" s="581"/>
+      <c r="I4" s="581"/>
+      <c r="J4" s="581"/>
+      <c r="K4" s="581"/>
+      <c r="L4" s="582"/>
       <c r="M4" s="235"/>
       <c r="N4" s="236"/>
     </row>
@@ -30460,20 +30545,20 @@
       <c r="N10" s="264"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="559" t="s">
+      <c r="A11" s="580" t="s">
         <v>1034</v>
       </c>
-      <c r="B11" s="563"/>
-      <c r="C11" s="560"/>
-      <c r="D11" s="560"/>
-      <c r="E11" s="563"/>
-      <c r="F11" s="560"/>
-      <c r="G11" s="560"/>
-      <c r="H11" s="560"/>
-      <c r="I11" s="560"/>
-      <c r="J11" s="560"/>
-      <c r="K11" s="560"/>
-      <c r="L11" s="561"/>
+      <c r="B11" s="577"/>
+      <c r="C11" s="581"/>
+      <c r="D11" s="581"/>
+      <c r="E11" s="577"/>
+      <c r="F11" s="581"/>
+      <c r="G11" s="581"/>
+      <c r="H11" s="581"/>
+      <c r="I11" s="581"/>
+      <c r="J11" s="581"/>
+      <c r="K11" s="581"/>
+      <c r="L11" s="582"/>
       <c r="M11" s="233"/>
       <c r="N11" s="233"/>
     </row>
@@ -30534,20 +30619,20 @@
       <c r="N13" s="276"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="559" t="s">
+      <c r="A14" s="580" t="s">
         <v>1042</v>
       </c>
-      <c r="B14" s="560"/>
-      <c r="C14" s="560"/>
-      <c r="D14" s="560"/>
-      <c r="E14" s="560"/>
-      <c r="F14" s="560"/>
-      <c r="G14" s="560"/>
-      <c r="H14" s="560"/>
-      <c r="I14" s="560"/>
-      <c r="J14" s="560"/>
-      <c r="K14" s="560"/>
-      <c r="L14" s="561"/>
+      <c r="B14" s="581"/>
+      <c r="C14" s="581"/>
+      <c r="D14" s="581"/>
+      <c r="E14" s="581"/>
+      <c r="F14" s="581"/>
+      <c r="G14" s="581"/>
+      <c r="H14" s="581"/>
+      <c r="I14" s="581"/>
+      <c r="J14" s="581"/>
+      <c r="K14" s="581"/>
+      <c r="L14" s="582"/>
       <c r="M14" s="275"/>
       <c r="N14" s="276"/>
     </row>
@@ -30608,20 +30693,20 @@
       <c r="N16" s="284"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="567" t="s">
+      <c r="A17" s="576" t="s">
         <v>1049</v>
       </c>
-      <c r="B17" s="563"/>
-      <c r="C17" s="563"/>
-      <c r="D17" s="563"/>
-      <c r="E17" s="563"/>
-      <c r="F17" s="563"/>
-      <c r="G17" s="563"/>
-      <c r="H17" s="563"/>
-      <c r="I17" s="563"/>
-      <c r="J17" s="563"/>
-      <c r="K17" s="563"/>
-      <c r="L17" s="558"/>
+      <c r="B17" s="577"/>
+      <c r="C17" s="577"/>
+      <c r="D17" s="577"/>
+      <c r="E17" s="577"/>
+      <c r="F17" s="577"/>
+      <c r="G17" s="577"/>
+      <c r="H17" s="577"/>
+      <c r="I17" s="577"/>
+      <c r="J17" s="577"/>
+      <c r="K17" s="577"/>
+      <c r="L17" s="578"/>
       <c r="M17" s="285"/>
       <c r="N17" s="286"/>
     </row>
@@ -30938,20 +31023,20 @@
       <c r="N30" s="323"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="568" t="s">
+      <c r="A31" s="579" t="s">
         <v>1087</v>
       </c>
-      <c r="B31" s="563"/>
-      <c r="C31" s="563"/>
-      <c r="D31" s="563"/>
-      <c r="E31" s="563"/>
-      <c r="F31" s="563"/>
-      <c r="G31" s="563"/>
-      <c r="H31" s="563"/>
-      <c r="I31" s="563"/>
-      <c r="J31" s="563"/>
-      <c r="K31" s="563"/>
-      <c r="L31" s="558"/>
+      <c r="B31" s="577"/>
+      <c r="C31" s="577"/>
+      <c r="D31" s="577"/>
+      <c r="E31" s="577"/>
+      <c r="F31" s="577"/>
+      <c r="G31" s="577"/>
+      <c r="H31" s="577"/>
+      <c r="I31" s="577"/>
+      <c r="J31" s="577"/>
+      <c r="K31" s="577"/>
+      <c r="L31" s="578"/>
       <c r="M31" s="324"/>
       <c r="N31" s="324"/>
     </row>
@@ -45415,6 +45500,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
@@ -45431,10 +45520,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45461,56 +45546,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="591" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="574" t="s">
+      <c r="B1" s="593" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="574" t="s">
+      <c r="C1" s="593" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="575" t="s">
+      <c r="D1" s="594" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="575" t="s">
+      <c r="E1" s="594" t="s">
         <v>1007</v>
       </c>
-      <c r="F1" s="574" t="s">
+      <c r="F1" s="593" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="574" t="s">
+      <c r="G1" s="593" t="s">
         <v>1008</v>
       </c>
-      <c r="H1" s="574" t="s">
+      <c r="H1" s="593" t="s">
         <v>1009</v>
       </c>
-      <c r="I1" s="574" t="s">
+      <c r="I1" s="593" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="574" t="s">
+      <c r="J1" s="593" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="577" t="s">
+      <c r="K1" s="596" t="s">
         <v>1010</v>
       </c>
-      <c r="L1" s="570" t="s">
+      <c r="L1" s="589" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="573"/>
-      <c r="B2" s="573"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="576"/>
-      <c r="E2" s="576"/>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="573"/>
-      <c r="J2" s="573"/>
-      <c r="K2" s="573"/>
-      <c r="L2" s="571"/>
+      <c r="A2" s="592"/>
+      <c r="B2" s="592"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="595"/>
+      <c r="E2" s="595"/>
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="592"/>
+      <c r="I2" s="592"/>
+      <c r="J2" s="592"/>
+      <c r="K2" s="592"/>
+      <c r="L2" s="590"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="343" t="s">
@@ -48312,8 +48397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -49099,7 +49184,7 @@
       <c r="D36" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="E36" s="509" t="s">
+      <c r="E36" s="528" t="s">
         <v>296</v>
       </c>
       <c r="F36" s="121"/>
@@ -49122,7 +49207,7 @@
       <c r="D37" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="E37" s="510"/>
+      <c r="E37" s="529"/>
       <c r="F37" s="121"/>
       <c r="G37" s="121"/>
       <c r="H37" s="121"/>
@@ -49849,41 +49934,94 @@
       <c r="M69" s="102"/>
       <c r="N69" s="102"/>
     </row>
-    <row r="70" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="124"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="126"/>
-    </row>
-    <row r="71" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="124"/>
-      <c r="F71" s="125"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="126"/>
-    </row>
-    <row r="72" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="124"/>
-      <c r="F72" s="125"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="125"/>
-      <c r="J72" s="125"/>
-      <c r="K72" s="126"/>
-    </row>
-    <row r="73" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="124"/>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="126"/>
+    <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A70" s="100" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B70" s="101"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="121"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
+    </row>
+    <row r="71" spans="1:14" s="467" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A71" s="597" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B71" s="463" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C71" s="463" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="463" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E71" s="598"/>
+      <c r="F71" s="466"/>
+      <c r="G71" s="465"/>
+      <c r="H71" s="465"/>
+      <c r="I71" s="465"/>
+      <c r="J71" s="465"/>
+      <c r="K71" s="465"/>
+      <c r="L71" s="466"/>
+      <c r="M71" s="598"/>
+      <c r="N71" s="598"/>
+    </row>
+    <row r="72" spans="1:14" s="467" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A72" s="597" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B72" s="463" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C72" s="463" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="463" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E72" s="598"/>
+      <c r="F72" s="466"/>
+      <c r="G72" s="465"/>
+      <c r="H72" s="465"/>
+      <c r="I72" s="465"/>
+      <c r="J72" s="465"/>
+      <c r="K72" s="465"/>
+      <c r="L72" s="466"/>
+      <c r="M72" s="598"/>
+      <c r="N72" s="598"/>
+    </row>
+    <row r="73" spans="1:14" s="467" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="597" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B73" s="463" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C73" s="463" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="463" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E73" s="598"/>
+      <c r="F73" s="466"/>
+      <c r="G73" s="465"/>
+      <c r="H73" s="465"/>
+      <c r="I73" s="465"/>
+      <c r="J73" s="465"/>
+      <c r="K73" s="465"/>
+      <c r="L73" s="466"/>
+      <c r="M73" s="598"/>
+      <c r="N73" s="598"/>
     </row>
     <row r="74" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="124"/>
@@ -58205,8 +58343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59650,53 +59788,53 @@
       <c r="K70" s="411"/>
       <c r="L70" s="412"/>
     </row>
-    <row r="71" spans="1:12" s="582" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="578" t="s">
+    <row r="71" spans="1:12" s="472" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="468" t="s">
         <v>1688</v>
       </c>
-      <c r="B71" s="579" t="s">
+      <c r="B71" s="469" t="s">
         <v>1472</v>
       </c>
-      <c r="C71" s="579" t="s">
+      <c r="C71" s="469" t="s">
         <v>1473</v>
       </c>
-      <c r="D71" s="579" t="s">
+      <c r="D71" s="469" t="s">
         <v>1474</v>
       </c>
-      <c r="E71" s="579" t="s">
+      <c r="E71" s="469" t="s">
         <v>1475</v>
       </c>
-      <c r="F71" s="579"/>
-      <c r="G71" s="579"/>
-      <c r="H71" s="579"/>
-      <c r="I71" s="579"/>
-      <c r="J71" s="580"/>
-      <c r="K71" s="579"/>
-      <c r="L71" s="581"/>
-    </row>
-    <row r="72" spans="1:12" s="582" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="578" t="s">
+      <c r="F71" s="469"/>
+      <c r="G71" s="469"/>
+      <c r="H71" s="469"/>
+      <c r="I71" s="469"/>
+      <c r="J71" s="470"/>
+      <c r="K71" s="469"/>
+      <c r="L71" s="471"/>
+    </row>
+    <row r="72" spans="1:12" s="472" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="468" t="s">
         <v>1689</v>
       </c>
-      <c r="B72" s="579" t="s">
+      <c r="B72" s="469" t="s">
         <v>1476</v>
       </c>
-      <c r="C72" s="579" t="s">
+      <c r="C72" s="469" t="s">
         <v>1473</v>
       </c>
-      <c r="D72" s="579" t="s">
+      <c r="D72" s="469" t="s">
         <v>1477</v>
       </c>
-      <c r="E72" s="579" t="s">
+      <c r="E72" s="469" t="s">
         <v>1478</v>
       </c>
-      <c r="F72" s="579"/>
-      <c r="G72" s="579"/>
-      <c r="H72" s="579"/>
-      <c r="I72" s="579"/>
-      <c r="J72" s="580"/>
-      <c r="K72" s="579"/>
-      <c r="L72" s="581"/>
+      <c r="F72" s="469"/>
+      <c r="G72" s="469"/>
+      <c r="H72" s="469"/>
+      <c r="I72" s="469"/>
+      <c r="J72" s="470"/>
+      <c r="K72" s="469"/>
+      <c r="L72" s="471"/>
     </row>
     <row r="73" spans="1:12" s="421" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="417" t="s">
@@ -59714,101 +59852,101 @@
       <c r="K73" s="419"/>
       <c r="L73" s="420"/>
     </row>
-    <row r="74" spans="1:12" s="584" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="578" t="s">
+    <row r="74" spans="1:12" s="474" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="468" t="s">
         <v>1690</v>
       </c>
-      <c r="B74" s="579" t="s">
+      <c r="B74" s="469" t="s">
         <v>1480</v>
       </c>
-      <c r="C74" s="579" t="s">
+      <c r="C74" s="469" t="s">
         <v>1473</v>
       </c>
-      <c r="D74" s="579" t="s">
+      <c r="D74" s="469" t="s">
         <v>1481</v>
       </c>
-      <c r="E74" s="579" t="s">
+      <c r="E74" s="469" t="s">
         <v>1482</v>
       </c>
-      <c r="F74" s="579"/>
-      <c r="G74" s="579"/>
-      <c r="H74" s="579"/>
-      <c r="I74" s="579"/>
-      <c r="J74" s="580"/>
-      <c r="K74" s="579"/>
-      <c r="L74" s="583"/>
-    </row>
-    <row r="75" spans="1:12" s="584" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="578" t="s">
+      <c r="F74" s="469"/>
+      <c r="G74" s="469"/>
+      <c r="H74" s="469"/>
+      <c r="I74" s="469"/>
+      <c r="J74" s="470"/>
+      <c r="K74" s="469"/>
+      <c r="L74" s="473"/>
+    </row>
+    <row r="75" spans="1:12" s="474" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="468" t="s">
         <v>1691</v>
       </c>
-      <c r="B75" s="579" t="s">
+      <c r="B75" s="469" t="s">
         <v>1483</v>
       </c>
-      <c r="C75" s="579" t="s">
+      <c r="C75" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D75" s="579" t="s">
+      <c r="D75" s="469" t="s">
         <v>1485</v>
       </c>
-      <c r="E75" s="579" t="s">
+      <c r="E75" s="469" t="s">
         <v>1486</v>
       </c>
-      <c r="F75" s="579"/>
-      <c r="G75" s="579"/>
-      <c r="H75" s="579"/>
-      <c r="I75" s="579"/>
-      <c r="J75" s="580"/>
-      <c r="K75" s="579"/>
-      <c r="L75" s="583"/>
-    </row>
-    <row r="76" spans="1:12" s="584" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="578" t="s">
+      <c r="F75" s="469"/>
+      <c r="G75" s="469"/>
+      <c r="H75" s="469"/>
+      <c r="I75" s="469"/>
+      <c r="J75" s="470"/>
+      <c r="K75" s="469"/>
+      <c r="L75" s="473"/>
+    </row>
+    <row r="76" spans="1:12" s="474" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="468" t="s">
         <v>1692</v>
       </c>
-      <c r="B76" s="579" t="s">
+      <c r="B76" s="469" t="s">
         <v>1487</v>
       </c>
-      <c r="C76" s="579" t="s">
+      <c r="C76" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D76" s="579" t="s">
+      <c r="D76" s="469" t="s">
         <v>1488</v>
       </c>
-      <c r="E76" s="579" t="s">
+      <c r="E76" s="469" t="s">
         <v>1489</v>
       </c>
-      <c r="F76" s="579"/>
-      <c r="G76" s="579"/>
-      <c r="H76" s="579"/>
-      <c r="I76" s="579"/>
-      <c r="J76" s="580"/>
-      <c r="K76" s="579"/>
-      <c r="L76" s="583"/>
-    </row>
-    <row r="77" spans="1:12" s="584" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="578" t="s">
+      <c r="F76" s="469"/>
+      <c r="G76" s="469"/>
+      <c r="H76" s="469"/>
+      <c r="I76" s="469"/>
+      <c r="J76" s="470"/>
+      <c r="K76" s="469"/>
+      <c r="L76" s="473"/>
+    </row>
+    <row r="77" spans="1:12" s="474" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="468" t="s">
         <v>1693</v>
       </c>
-      <c r="B77" s="579" t="s">
+      <c r="B77" s="469" t="s">
         <v>1490</v>
       </c>
-      <c r="C77" s="579" t="s">
+      <c r="C77" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D77" s="579" t="s">
+      <c r="D77" s="469" t="s">
         <v>1491</v>
       </c>
-      <c r="E77" s="579" t="s">
+      <c r="E77" s="469" t="s">
         <v>1492</v>
       </c>
-      <c r="F77" s="579"/>
-      <c r="G77" s="579"/>
-      <c r="H77" s="579"/>
-      <c r="I77" s="579"/>
-      <c r="J77" s="580"/>
-      <c r="K77" s="579"/>
-      <c r="L77" s="583"/>
+      <c r="F77" s="469"/>
+      <c r="G77" s="469"/>
+      <c r="H77" s="469"/>
+      <c r="I77" s="469"/>
+      <c r="J77" s="470"/>
+      <c r="K77" s="469"/>
+      <c r="L77" s="473"/>
     </row>
     <row r="78" spans="1:12" s="426" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="422" t="s">
@@ -59826,101 +59964,101 @@
       <c r="K78" s="424"/>
       <c r="L78" s="425"/>
     </row>
-    <row r="79" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="578" t="s">
+    <row r="79" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="468" t="s">
         <v>1694</v>
       </c>
-      <c r="B79" s="579" t="s">
+      <c r="B79" s="469" t="s">
         <v>1494</v>
       </c>
-      <c r="C79" s="579" t="s">
+      <c r="C79" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D79" s="579" t="s">
+      <c r="D79" s="469" t="s">
         <v>1495</v>
       </c>
-      <c r="E79" s="579" t="s">
+      <c r="E79" s="469" t="s">
         <v>1496</v>
       </c>
-      <c r="F79" s="579"/>
-      <c r="G79" s="579"/>
-      <c r="H79" s="579"/>
-      <c r="I79" s="579"/>
-      <c r="J79" s="580"/>
-      <c r="K79" s="579"/>
-      <c r="L79" s="583"/>
-    </row>
-    <row r="80" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="578" t="s">
+      <c r="F79" s="469"/>
+      <c r="G79" s="469"/>
+      <c r="H79" s="469"/>
+      <c r="I79" s="469"/>
+      <c r="J79" s="470"/>
+      <c r="K79" s="469"/>
+      <c r="L79" s="473"/>
+    </row>
+    <row r="80" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="468" t="s">
         <v>1695</v>
       </c>
-      <c r="B80" s="579" t="s">
+      <c r="B80" s="469" t="s">
         <v>1497</v>
       </c>
-      <c r="C80" s="579" t="s">
+      <c r="C80" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D80" s="579" t="s">
+      <c r="D80" s="469" t="s">
         <v>1498</v>
       </c>
-      <c r="E80" s="579" t="s">
+      <c r="E80" s="469" t="s">
         <v>1499</v>
       </c>
-      <c r="F80" s="579"/>
-      <c r="G80" s="579"/>
-      <c r="H80" s="579"/>
-      <c r="I80" s="579"/>
-      <c r="J80" s="580"/>
-      <c r="K80" s="579"/>
-      <c r="L80" s="583"/>
-    </row>
-    <row r="81" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="578" t="s">
+      <c r="F80" s="469"/>
+      <c r="G80" s="469"/>
+      <c r="H80" s="469"/>
+      <c r="I80" s="469"/>
+      <c r="J80" s="470"/>
+      <c r="K80" s="469"/>
+      <c r="L80" s="473"/>
+    </row>
+    <row r="81" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="468" t="s">
         <v>1696</v>
       </c>
-      <c r="B81" s="586" t="s">
+      <c r="B81" s="476" t="s">
         <v>1500</v>
       </c>
-      <c r="C81" s="579" t="s">
+      <c r="C81" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D81" s="579" t="s">
+      <c r="D81" s="469" t="s">
         <v>1501</v>
       </c>
-      <c r="E81" s="579" t="s">
+      <c r="E81" s="469" t="s">
         <v>1502</v>
       </c>
-      <c r="F81" s="579"/>
-      <c r="G81" s="579"/>
-      <c r="H81" s="579"/>
-      <c r="I81" s="579"/>
-      <c r="J81" s="580"/>
-      <c r="K81" s="579"/>
-      <c r="L81" s="583"/>
-    </row>
-    <row r="82" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="578" t="s">
+      <c r="F81" s="469"/>
+      <c r="G81" s="469"/>
+      <c r="H81" s="469"/>
+      <c r="I81" s="469"/>
+      <c r="J81" s="470"/>
+      <c r="K81" s="469"/>
+      <c r="L81" s="473"/>
+    </row>
+    <row r="82" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="468" t="s">
         <v>1697</v>
       </c>
-      <c r="B82" s="579" t="s">
+      <c r="B82" s="469" t="s">
         <v>1503</v>
       </c>
-      <c r="C82" s="579" t="s">
+      <c r="C82" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D82" s="579" t="s">
+      <c r="D82" s="469" t="s">
         <v>1504</v>
       </c>
-      <c r="E82" s="579" t="s">
+      <c r="E82" s="469" t="s">
         <v>1505</v>
       </c>
-      <c r="F82" s="579"/>
-      <c r="G82" s="579"/>
-      <c r="H82" s="579"/>
-      <c r="I82" s="579"/>
-      <c r="J82" s="580"/>
-      <c r="K82" s="579"/>
-      <c r="L82" s="583"/>
+      <c r="F82" s="469"/>
+      <c r="G82" s="469"/>
+      <c r="H82" s="469"/>
+      <c r="I82" s="469"/>
+      <c r="J82" s="470"/>
+      <c r="K82" s="469"/>
+      <c r="L82" s="473"/>
     </row>
     <row r="83" spans="1:12" s="426" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="422" t="s">
@@ -59938,531 +60076,531 @@
       <c r="K83" s="424"/>
       <c r="L83" s="425"/>
     </row>
-    <row r="84" spans="1:12" s="585" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="578" t="s">
+    <row r="84" spans="1:12" s="475" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="468" t="s">
         <v>1698</v>
       </c>
-      <c r="B84" s="579" t="s">
+      <c r="B84" s="469" t="s">
         <v>1507</v>
       </c>
-      <c r="C84" s="579" t="s">
+      <c r="C84" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D84" s="579" t="s">
+      <c r="D84" s="469" t="s">
         <v>1508</v>
       </c>
-      <c r="E84" s="579" t="s">
+      <c r="E84" s="469" t="s">
         <v>2146</v>
       </c>
-      <c r="F84" s="579"/>
-      <c r="G84" s="579"/>
-      <c r="H84" s="579"/>
-      <c r="I84" s="579"/>
-      <c r="J84" s="580"/>
-      <c r="K84" s="579"/>
-      <c r="L84" s="587"/>
-    </row>
-    <row r="85" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="578" t="s">
+      <c r="F84" s="469"/>
+      <c r="G84" s="469"/>
+      <c r="H84" s="469"/>
+      <c r="I84" s="469"/>
+      <c r="J84" s="470"/>
+      <c r="K84" s="469"/>
+      <c r="L84" s="477"/>
+    </row>
+    <row r="85" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="468" t="s">
         <v>1699</v>
       </c>
-      <c r="B85" s="579" t="s">
+      <c r="B85" s="469" t="s">
         <v>1509</v>
       </c>
-      <c r="C85" s="579" t="s">
+      <c r="C85" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D85" s="579" t="s">
+      <c r="D85" s="469" t="s">
         <v>1510</v>
       </c>
-      <c r="E85" s="579" t="s">
+      <c r="E85" s="469" t="s">
         <v>1511</v>
       </c>
-      <c r="F85" s="579"/>
-      <c r="G85" s="579"/>
-      <c r="H85" s="579"/>
-      <c r="I85" s="579"/>
-      <c r="J85" s="580"/>
-      <c r="K85" s="579"/>
-      <c r="L85" s="587"/>
-    </row>
-    <row r="86" spans="1:12" s="585" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="578" t="s">
+      <c r="F85" s="469"/>
+      <c r="G85" s="469"/>
+      <c r="H85" s="469"/>
+      <c r="I85" s="469"/>
+      <c r="J85" s="470"/>
+      <c r="K85" s="469"/>
+      <c r="L85" s="477"/>
+    </row>
+    <row r="86" spans="1:12" s="475" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="468" t="s">
         <v>1700</v>
       </c>
-      <c r="B86" s="579" t="s">
+      <c r="B86" s="469" t="s">
         <v>1512</v>
       </c>
-      <c r="C86" s="579" t="s">
+      <c r="C86" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D86" s="579" t="s">
+      <c r="D86" s="469" t="s">
         <v>1513</v>
       </c>
-      <c r="E86" s="579" t="s">
+      <c r="E86" s="469" t="s">
         <v>2147</v>
       </c>
-      <c r="F86" s="579"/>
-      <c r="G86" s="579"/>
-      <c r="H86" s="579"/>
-      <c r="I86" s="579"/>
-      <c r="J86" s="580"/>
-      <c r="K86" s="579"/>
-      <c r="L86" s="587"/>
-    </row>
-    <row r="87" spans="1:12" s="585" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="578" t="s">
+      <c r="F86" s="469"/>
+      <c r="G86" s="469"/>
+      <c r="H86" s="469"/>
+      <c r="I86" s="469"/>
+      <c r="J86" s="470"/>
+      <c r="K86" s="469"/>
+      <c r="L86" s="477"/>
+    </row>
+    <row r="87" spans="1:12" s="475" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="468" t="s">
         <v>1701</v>
       </c>
-      <c r="B87" s="579" t="s">
+      <c r="B87" s="469" t="s">
         <v>1514</v>
       </c>
-      <c r="C87" s="579" t="s">
+      <c r="C87" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D87" s="579" t="s">
+      <c r="D87" s="469" t="s">
         <v>1515</v>
       </c>
-      <c r="E87" s="579" t="s">
+      <c r="E87" s="469" t="s">
         <v>1516</v>
       </c>
-      <c r="F87" s="579"/>
-      <c r="G87" s="579"/>
-      <c r="H87" s="579"/>
-      <c r="I87" s="579"/>
-      <c r="J87" s="580"/>
-      <c r="K87" s="579"/>
-      <c r="L87" s="587"/>
-    </row>
-    <row r="88" spans="1:12" s="585" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="578" t="s">
+      <c r="F87" s="469"/>
+      <c r="G87" s="469"/>
+      <c r="H87" s="469"/>
+      <c r="I87" s="469"/>
+      <c r="J87" s="470"/>
+      <c r="K87" s="469"/>
+      <c r="L87" s="477"/>
+    </row>
+    <row r="88" spans="1:12" s="475" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="468" t="s">
         <v>1702</v>
       </c>
-      <c r="B88" s="579" t="s">
+      <c r="B88" s="469" t="s">
         <v>1517</v>
       </c>
-      <c r="C88" s="579" t="s">
+      <c r="C88" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D88" s="579" t="s">
+      <c r="D88" s="469" t="s">
         <v>1518</v>
       </c>
-      <c r="E88" s="579" t="s">
+      <c r="E88" s="469" t="s">
         <v>2148</v>
       </c>
-      <c r="F88" s="579"/>
-      <c r="G88" s="579"/>
-      <c r="H88" s="579"/>
-      <c r="I88" s="579"/>
-      <c r="J88" s="580"/>
-      <c r="K88" s="579"/>
-      <c r="L88" s="587"/>
-    </row>
-    <row r="89" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="578" t="s">
+      <c r="F88" s="469"/>
+      <c r="G88" s="469"/>
+      <c r="H88" s="469"/>
+      <c r="I88" s="469"/>
+      <c r="J88" s="470"/>
+      <c r="K88" s="469"/>
+      <c r="L88" s="477"/>
+    </row>
+    <row r="89" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="468" t="s">
         <v>1703</v>
       </c>
-      <c r="B89" s="579" t="s">
+      <c r="B89" s="469" t="s">
         <v>1519</v>
       </c>
-      <c r="C89" s="579" t="s">
+      <c r="C89" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D89" s="579" t="s">
+      <c r="D89" s="469" t="s">
         <v>1520</v>
       </c>
-      <c r="E89" s="579" t="s">
+      <c r="E89" s="469" t="s">
         <v>1521</v>
       </c>
-      <c r="F89" s="579"/>
-      <c r="G89" s="579"/>
-      <c r="H89" s="579"/>
-      <c r="I89" s="579"/>
-      <c r="J89" s="580"/>
-      <c r="K89" s="579"/>
-      <c r="L89" s="587"/>
-    </row>
-    <row r="90" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="578" t="s">
+      <c r="F89" s="469"/>
+      <c r="G89" s="469"/>
+      <c r="H89" s="469"/>
+      <c r="I89" s="469"/>
+      <c r="J89" s="470"/>
+      <c r="K89" s="469"/>
+      <c r="L89" s="477"/>
+    </row>
+    <row r="90" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="468" t="s">
         <v>1704</v>
       </c>
-      <c r="B90" s="579" t="s">
+      <c r="B90" s="469" t="s">
         <v>1522</v>
       </c>
-      <c r="C90" s="579" t="s">
+      <c r="C90" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D90" s="579" t="s">
+      <c r="D90" s="469" t="s">
         <v>1523</v>
       </c>
-      <c r="E90" s="579" t="s">
+      <c r="E90" s="469" t="s">
         <v>1524</v>
       </c>
-      <c r="F90" s="579"/>
-      <c r="G90" s="579"/>
-      <c r="H90" s="579"/>
-      <c r="I90" s="579"/>
-      <c r="J90" s="580"/>
-      <c r="K90" s="579"/>
-      <c r="L90" s="587"/>
-    </row>
-    <row r="91" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="578" t="s">
+      <c r="F90" s="469"/>
+      <c r="G90" s="469"/>
+      <c r="H90" s="469"/>
+      <c r="I90" s="469"/>
+      <c r="J90" s="470"/>
+      <c r="K90" s="469"/>
+      <c r="L90" s="477"/>
+    </row>
+    <row r="91" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="468" t="s">
         <v>1705</v>
       </c>
-      <c r="B91" s="579" t="s">
+      <c r="B91" s="469" t="s">
         <v>1525</v>
       </c>
-      <c r="C91" s="579" t="s">
+      <c r="C91" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D91" s="579" t="s">
+      <c r="D91" s="469" t="s">
         <v>1526</v>
       </c>
-      <c r="E91" s="579" t="s">
+      <c r="E91" s="469" t="s">
         <v>1527</v>
       </c>
-      <c r="F91" s="579"/>
-      <c r="G91" s="579"/>
-      <c r="H91" s="579"/>
-      <c r="I91" s="579"/>
-      <c r="J91" s="580"/>
-      <c r="K91" s="579"/>
-      <c r="L91" s="587"/>
-    </row>
-    <row r="92" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="578" t="s">
+      <c r="F91" s="469"/>
+      <c r="G91" s="469"/>
+      <c r="H91" s="469"/>
+      <c r="I91" s="469"/>
+      <c r="J91" s="470"/>
+      <c r="K91" s="469"/>
+      <c r="L91" s="477"/>
+    </row>
+    <row r="92" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="468" t="s">
         <v>1706</v>
       </c>
-      <c r="B92" s="579" t="s">
+      <c r="B92" s="469" t="s">
         <v>1528</v>
       </c>
-      <c r="C92" s="579" t="s">
+      <c r="C92" s="469" t="s">
         <v>1529</v>
       </c>
-      <c r="D92" s="579" t="s">
+      <c r="D92" s="469" t="s">
         <v>1530</v>
       </c>
-      <c r="E92" s="579" t="s">
+      <c r="E92" s="469" t="s">
         <v>1531</v>
       </c>
-      <c r="F92" s="579"/>
-      <c r="G92" s="579"/>
-      <c r="H92" s="579"/>
-      <c r="I92" s="579"/>
-      <c r="J92" s="580"/>
-      <c r="K92" s="579"/>
-      <c r="L92" s="587"/>
-    </row>
-    <row r="93" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="578" t="s">
+      <c r="F92" s="469"/>
+      <c r="G92" s="469"/>
+      <c r="H92" s="469"/>
+      <c r="I92" s="469"/>
+      <c r="J92" s="470"/>
+      <c r="K92" s="469"/>
+      <c r="L92" s="477"/>
+    </row>
+    <row r="93" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="468" t="s">
         <v>1707</v>
       </c>
-      <c r="B93" s="579" t="s">
+      <c r="B93" s="469" t="s">
         <v>1532</v>
       </c>
-      <c r="C93" s="579" t="s">
+      <c r="C93" s="469" t="s">
         <v>1533</v>
       </c>
-      <c r="D93" s="579" t="s">
+      <c r="D93" s="469" t="s">
         <v>1534</v>
       </c>
-      <c r="E93" s="579" t="s">
+      <c r="E93" s="469" t="s">
         <v>1535</v>
       </c>
-      <c r="F93" s="579"/>
-      <c r="G93" s="579"/>
-      <c r="H93" s="579"/>
-      <c r="I93" s="579"/>
-      <c r="J93" s="580" t="s">
+      <c r="F93" s="469"/>
+      <c r="G93" s="469"/>
+      <c r="H93" s="469"/>
+      <c r="I93" s="469"/>
+      <c r="J93" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K93" s="579"/>
-      <c r="L93" s="587"/>
-    </row>
-    <row r="94" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="578" t="s">
+      <c r="K93" s="469"/>
+      <c r="L93" s="477"/>
+    </row>
+    <row r="94" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="468" t="s">
         <v>1708</v>
       </c>
-      <c r="B94" s="579" t="s">
+      <c r="B94" s="469" t="s">
         <v>1537</v>
       </c>
-      <c r="C94" s="579" t="s">
+      <c r="C94" s="469" t="s">
         <v>1538</v>
       </c>
-      <c r="D94" s="579" t="s">
+      <c r="D94" s="469" t="s">
         <v>1539</v>
       </c>
-      <c r="E94" s="579" t="s">
+      <c r="E94" s="469" t="s">
         <v>1540</v>
       </c>
-      <c r="F94" s="579"/>
-      <c r="G94" s="579"/>
-      <c r="H94" s="579"/>
-      <c r="I94" s="579"/>
-      <c r="J94" s="580" t="s">
+      <c r="F94" s="469"/>
+      <c r="G94" s="469"/>
+      <c r="H94" s="469"/>
+      <c r="I94" s="469"/>
+      <c r="J94" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K94" s="579"/>
-      <c r="L94" s="587"/>
-    </row>
-    <row r="95" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="578" t="s">
+      <c r="K94" s="469"/>
+      <c r="L94" s="477"/>
+    </row>
+    <row r="95" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="468" t="s">
         <v>1709</v>
       </c>
-      <c r="B95" s="579" t="s">
+      <c r="B95" s="469" t="s">
         <v>1541</v>
       </c>
-      <c r="C95" s="579" t="s">
+      <c r="C95" s="469" t="s">
         <v>1542</v>
       </c>
-      <c r="D95" s="579" t="s">
+      <c r="D95" s="469" t="s">
         <v>1543</v>
       </c>
-      <c r="E95" s="579" t="s">
+      <c r="E95" s="469" t="s">
         <v>1544</v>
       </c>
-      <c r="F95" s="579"/>
-      <c r="G95" s="579"/>
-      <c r="H95" s="579"/>
-      <c r="I95" s="579"/>
-      <c r="J95" s="580" t="s">
+      <c r="F95" s="469"/>
+      <c r="G95" s="469"/>
+      <c r="H95" s="469"/>
+      <c r="I95" s="469"/>
+      <c r="J95" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K95" s="579"/>
-      <c r="L95" s="587"/>
-    </row>
-    <row r="96" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="578" t="s">
+      <c r="K95" s="469"/>
+      <c r="L95" s="477"/>
+    </row>
+    <row r="96" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="468" t="s">
         <v>1710</v>
       </c>
-      <c r="B96" s="579" t="s">
+      <c r="B96" s="469" t="s">
         <v>1545</v>
       </c>
-      <c r="C96" s="579" t="s">
+      <c r="C96" s="469" t="s">
         <v>1546</v>
       </c>
-      <c r="D96" s="579" t="s">
+      <c r="D96" s="469" t="s">
         <v>1547</v>
       </c>
-      <c r="E96" s="579" t="s">
+      <c r="E96" s="469" t="s">
         <v>1548</v>
       </c>
-      <c r="F96" s="579"/>
-      <c r="G96" s="579"/>
-      <c r="H96" s="579"/>
-      <c r="I96" s="579"/>
-      <c r="J96" s="580" t="s">
+      <c r="F96" s="469"/>
+      <c r="G96" s="469"/>
+      <c r="H96" s="469"/>
+      <c r="I96" s="469"/>
+      <c r="J96" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K96" s="579"/>
-      <c r="L96" s="587"/>
-    </row>
-    <row r="97" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="578" t="s">
+      <c r="K96" s="469"/>
+      <c r="L96" s="477"/>
+    </row>
+    <row r="97" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="468" t="s">
         <v>1711</v>
       </c>
-      <c r="B97" s="579" t="s">
+      <c r="B97" s="469" t="s">
         <v>1549</v>
       </c>
-      <c r="C97" s="579" t="s">
+      <c r="C97" s="469" t="s">
         <v>1550</v>
       </c>
-      <c r="D97" s="579" t="s">
+      <c r="D97" s="469" t="s">
         <v>1551</v>
       </c>
-      <c r="E97" s="579" t="s">
+      <c r="E97" s="469" t="s">
         <v>1552</v>
       </c>
-      <c r="F97" s="579"/>
-      <c r="G97" s="579"/>
-      <c r="H97" s="579"/>
-      <c r="I97" s="579"/>
-      <c r="J97" s="580" t="s">
+      <c r="F97" s="469"/>
+      <c r="G97" s="469"/>
+      <c r="H97" s="469"/>
+      <c r="I97" s="469"/>
+      <c r="J97" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K97" s="579"/>
-      <c r="L97" s="587"/>
-    </row>
-    <row r="98" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="578" t="s">
+      <c r="K97" s="469"/>
+      <c r="L97" s="477"/>
+    </row>
+    <row r="98" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="468" t="s">
         <v>1712</v>
       </c>
-      <c r="B98" s="579" t="s">
+      <c r="B98" s="469" t="s">
         <v>1553</v>
       </c>
-      <c r="C98" s="579" t="s">
+      <c r="C98" s="469" t="s">
         <v>1554</v>
       </c>
-      <c r="D98" s="579" t="s">
+      <c r="D98" s="469" t="s">
         <v>1555</v>
       </c>
-      <c r="E98" s="579" t="s">
+      <c r="E98" s="469" t="s">
         <v>1556</v>
       </c>
-      <c r="F98" s="579"/>
-      <c r="G98" s="579"/>
-      <c r="H98" s="579"/>
-      <c r="I98" s="579"/>
-      <c r="J98" s="580" t="s">
+      <c r="F98" s="469"/>
+      <c r="G98" s="469"/>
+      <c r="H98" s="469"/>
+      <c r="I98" s="469"/>
+      <c r="J98" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K98" s="579"/>
-      <c r="L98" s="587"/>
-    </row>
-    <row r="99" spans="1:12" s="594" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="590" t="s">
+      <c r="K98" s="469"/>
+      <c r="L98" s="477"/>
+    </row>
+    <row r="99" spans="1:12" s="484" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="480" t="s">
         <v>1713</v>
       </c>
-      <c r="B99" s="591" t="s">
+      <c r="B99" s="481" t="s">
         <v>1557</v>
       </c>
-      <c r="C99" s="591" t="s">
+      <c r="C99" s="481" t="s">
         <v>1558</v>
       </c>
-      <c r="D99" s="591" t="s">
+      <c r="D99" s="481" t="s">
         <v>1559</v>
       </c>
-      <c r="E99" s="591" t="s">
+      <c r="E99" s="481" t="s">
         <v>1560</v>
       </c>
-      <c r="F99" s="591"/>
-      <c r="G99" s="591"/>
-      <c r="H99" s="591"/>
-      <c r="I99" s="591"/>
-      <c r="J99" s="592" t="s">
+      <c r="F99" s="481"/>
+      <c r="G99" s="481"/>
+      <c r="H99" s="481"/>
+      <c r="I99" s="481"/>
+      <c r="J99" s="482" t="s">
         <v>1536</v>
       </c>
-      <c r="K99" s="591"/>
-      <c r="L99" s="593"/>
-    </row>
-    <row r="100" spans="1:12" s="594" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="590" t="s">
+      <c r="K99" s="481"/>
+      <c r="L99" s="483"/>
+    </row>
+    <row r="100" spans="1:12" s="484" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="480" t="s">
         <v>1714</v>
       </c>
-      <c r="B100" s="591" t="s">
+      <c r="B100" s="481" t="s">
         <v>1561</v>
       </c>
-      <c r="C100" s="591" t="s">
+      <c r="C100" s="481" t="s">
         <v>1558</v>
       </c>
-      <c r="D100" s="591" t="s">
+      <c r="D100" s="481" t="s">
         <v>1562</v>
       </c>
-      <c r="E100" s="591" t="s">
+      <c r="E100" s="481" t="s">
         <v>1563</v>
       </c>
-      <c r="F100" s="591"/>
-      <c r="G100" s="591"/>
-      <c r="H100" s="591"/>
-      <c r="I100" s="591"/>
-      <c r="J100" s="592" t="s">
+      <c r="F100" s="481"/>
+      <c r="G100" s="481"/>
+      <c r="H100" s="481"/>
+      <c r="I100" s="481"/>
+      <c r="J100" s="482" t="s">
         <v>1536</v>
       </c>
-      <c r="K100" s="591"/>
-      <c r="L100" s="593"/>
-    </row>
-    <row r="101" spans="1:12" s="596" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="590" t="s">
+      <c r="K100" s="481"/>
+      <c r="L100" s="483"/>
+    </row>
+    <row r="101" spans="1:12" s="486" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="480" t="s">
         <v>1715</v>
       </c>
-      <c r="B101" s="591" t="s">
+      <c r="B101" s="481" t="s">
         <v>1564</v>
       </c>
-      <c r="C101" s="591" t="s">
+      <c r="C101" s="481" t="s">
         <v>1565</v>
       </c>
-      <c r="D101" s="591" t="s">
+      <c r="D101" s="481" t="s">
         <v>1566</v>
       </c>
-      <c r="E101" s="591" t="s">
+      <c r="E101" s="481" t="s">
         <v>1567</v>
       </c>
-      <c r="F101" s="591"/>
-      <c r="G101" s="591"/>
-      <c r="H101" s="591"/>
-      <c r="I101" s="591"/>
-      <c r="J101" s="592" t="s">
+      <c r="F101" s="481"/>
+      <c r="G101" s="481"/>
+      <c r="H101" s="481"/>
+      <c r="I101" s="481"/>
+      <c r="J101" s="482" t="s">
         <v>1536</v>
       </c>
-      <c r="K101" s="591"/>
-      <c r="L101" s="595"/>
-    </row>
-    <row r="102" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="578" t="s">
+      <c r="K101" s="481"/>
+      <c r="L101" s="485"/>
+    </row>
+    <row r="102" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="468" t="s">
         <v>1716</v>
       </c>
-      <c r="B102" s="579" t="s">
+      <c r="B102" s="469" t="s">
         <v>1568</v>
       </c>
-      <c r="C102" s="579" t="s">
+      <c r="C102" s="469" t="s">
         <v>1565</v>
       </c>
-      <c r="D102" s="579" t="s">
+      <c r="D102" s="469" t="s">
         <v>1569</v>
       </c>
-      <c r="E102" s="579" t="s">
+      <c r="E102" s="469" t="s">
         <v>1570</v>
       </c>
-      <c r="F102" s="579"/>
-      <c r="G102" s="579"/>
-      <c r="H102" s="579"/>
-      <c r="I102" s="579"/>
-      <c r="J102" s="580" t="s">
+      <c r="F102" s="469"/>
+      <c r="G102" s="469"/>
+      <c r="H102" s="469"/>
+      <c r="I102" s="469"/>
+      <c r="J102" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K102" s="579"/>
-      <c r="L102" s="587"/>
-    </row>
-    <row r="103" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="578" t="s">
+      <c r="K102" s="469"/>
+      <c r="L102" s="477"/>
+    </row>
+    <row r="103" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="468" t="s">
         <v>1717</v>
       </c>
-      <c r="B103" s="579" t="s">
+      <c r="B103" s="469" t="s">
         <v>1571</v>
       </c>
-      <c r="C103" s="579" t="s">
+      <c r="C103" s="469" t="s">
         <v>1565</v>
       </c>
-      <c r="D103" s="579" t="s">
+      <c r="D103" s="469" t="s">
         <v>1572</v>
       </c>
-      <c r="E103" s="579" t="s">
+      <c r="E103" s="469" t="s">
         <v>1573</v>
       </c>
-      <c r="F103" s="579"/>
-      <c r="G103" s="579"/>
-      <c r="H103" s="579"/>
-      <c r="I103" s="579"/>
-      <c r="J103" s="580" t="s">
+      <c r="F103" s="469"/>
+      <c r="G103" s="469"/>
+      <c r="H103" s="469"/>
+      <c r="I103" s="469"/>
+      <c r="J103" s="470" t="s">
         <v>1536</v>
       </c>
-      <c r="K103" s="579"/>
-      <c r="L103" s="587"/>
-    </row>
-    <row r="104" spans="1:12" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="578" t="s">
+      <c r="K103" s="469"/>
+      <c r="L103" s="477"/>
+    </row>
+    <row r="104" spans="1:12" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="468" t="s">
         <v>1718</v>
       </c>
-      <c r="B104" s="579" t="s">
+      <c r="B104" s="469" t="s">
         <v>1574</v>
       </c>
-      <c r="C104" s="579" t="s">
+      <c r="C104" s="469" t="s">
         <v>1575</v>
       </c>
-      <c r="D104" s="579" t="s">
+      <c r="D104" s="469" t="s">
         <v>1576</v>
       </c>
-      <c r="E104" s="579" t="s">
+      <c r="E104" s="469" t="s">
         <v>1577</v>
       </c>
-      <c r="F104" s="579"/>
-      <c r="G104" s="579"/>
-      <c r="H104" s="579"/>
-      <c r="I104" s="579"/>
-      <c r="J104" s="580"/>
-      <c r="K104" s="579"/>
-      <c r="L104" s="587"/>
+      <c r="F104" s="469"/>
+      <c r="G104" s="469"/>
+      <c r="H104" s="469"/>
+      <c r="I104" s="469"/>
+      <c r="J104" s="470"/>
+      <c r="K104" s="469"/>
+      <c r="L104" s="477"/>
     </row>
     <row r="105" spans="1:12" s="427" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="414" t="s">
@@ -61088,14 +61226,14 @@
       <c r="K129" s="415"/>
       <c r="L129" s="428"/>
     </row>
-    <row r="130" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="578" t="s">
+    <row r="130" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="468" t="s">
         <v>1751</v>
       </c>
-      <c r="B130" s="588" t="s">
+      <c r="B130" s="478" t="s">
         <v>1661</v>
       </c>
-      <c r="C130" s="589" t="s">
+      <c r="C130" s="479" t="s">
         <v>1484</v>
       </c>
       <c r="D130" s="456" t="s">
@@ -61104,22 +61242,22 @@
       <c r="E130" s="456" t="s">
         <v>1663</v>
       </c>
-      <c r="F130" s="579"/>
-      <c r="G130" s="579"/>
-      <c r="H130" s="579"/>
-      <c r="I130" s="579"/>
-      <c r="J130" s="579"/>
-      <c r="K130" s="579"/>
-      <c r="L130" s="587"/>
-    </row>
-    <row r="131" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="578" t="s">
+      <c r="F130" s="469"/>
+      <c r="G130" s="469"/>
+      <c r="H130" s="469"/>
+      <c r="I130" s="469"/>
+      <c r="J130" s="469"/>
+      <c r="K130" s="469"/>
+      <c r="L130" s="477"/>
+    </row>
+    <row r="131" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="468" t="s">
         <v>1752</v>
       </c>
-      <c r="B131" s="588" t="s">
+      <c r="B131" s="478" t="s">
         <v>1664</v>
       </c>
-      <c r="C131" s="589" t="s">
+      <c r="C131" s="479" t="s">
         <v>1484</v>
       </c>
       <c r="D131" s="456" t="s">
@@ -61128,13 +61266,13 @@
       <c r="E131" s="456" t="s">
         <v>1655</v>
       </c>
-      <c r="F131" s="579"/>
-      <c r="G131" s="579"/>
-      <c r="H131" s="579"/>
-      <c r="I131" s="579"/>
-      <c r="J131" s="579"/>
-      <c r="K131" s="579"/>
-      <c r="L131" s="587"/>
+      <c r="F131" s="469"/>
+      <c r="G131" s="469"/>
+      <c r="H131" s="469"/>
+      <c r="I131" s="469"/>
+      <c r="J131" s="469"/>
+      <c r="K131" s="469"/>
+      <c r="L131" s="477"/>
     </row>
     <row r="132" spans="1:31" s="426" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="422" t="s">
@@ -61171,173 +61309,173 @@
       <c r="AD132" s="427"/>
       <c r="AE132" s="427"/>
     </row>
-    <row r="133" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="578" t="s">
+    <row r="133" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="468" t="s">
         <v>1742</v>
       </c>
-      <c r="B133" s="579" t="s">
+      <c r="B133" s="469" t="s">
         <v>1667</v>
       </c>
-      <c r="C133" s="579" t="s">
+      <c r="C133" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D133" s="579" t="s">
+      <c r="D133" s="469" t="s">
         <v>1668</v>
       </c>
-      <c r="E133" s="579" t="s">
+      <c r="E133" s="469" t="s">
         <v>1669</v>
       </c>
-      <c r="F133" s="579"/>
-      <c r="G133" s="579"/>
-      <c r="H133" s="579"/>
-      <c r="I133" s="579"/>
-      <c r="J133" s="580"/>
-      <c r="K133" s="579"/>
-      <c r="L133" s="583"/>
-    </row>
-    <row r="134" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="578" t="s">
+      <c r="F133" s="469"/>
+      <c r="G133" s="469"/>
+      <c r="H133" s="469"/>
+      <c r="I133" s="469"/>
+      <c r="J133" s="470"/>
+      <c r="K133" s="469"/>
+      <c r="L133" s="473"/>
+    </row>
+    <row r="134" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="468" t="s">
         <v>1743</v>
       </c>
-      <c r="B134" s="579" t="s">
+      <c r="B134" s="469" t="s">
         <v>1670</v>
       </c>
-      <c r="C134" s="579" t="s">
+      <c r="C134" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D134" s="579" t="s">
+      <c r="D134" s="469" t="s">
         <v>1671</v>
       </c>
-      <c r="E134" s="579" t="s">
+      <c r="E134" s="469" t="s">
         <v>1672</v>
       </c>
-      <c r="F134" s="579"/>
-      <c r="G134" s="579"/>
-      <c r="H134" s="579"/>
-      <c r="I134" s="579"/>
-      <c r="J134" s="580"/>
-      <c r="K134" s="579"/>
-      <c r="L134" s="583"/>
-    </row>
-    <row r="135" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="578" t="s">
+      <c r="F134" s="469"/>
+      <c r="G134" s="469"/>
+      <c r="H134" s="469"/>
+      <c r="I134" s="469"/>
+      <c r="J134" s="470"/>
+      <c r="K134" s="469"/>
+      <c r="L134" s="473"/>
+    </row>
+    <row r="135" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="468" t="s">
         <v>1744</v>
       </c>
-      <c r="B135" s="579" t="s">
+      <c r="B135" s="469" t="s">
         <v>1673</v>
       </c>
-      <c r="C135" s="579" t="s">
+      <c r="C135" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D135" s="579" t="s">
+      <c r="D135" s="469" t="s">
         <v>1674</v>
       </c>
-      <c r="E135" s="579" t="s">
+      <c r="E135" s="469" t="s">
         <v>1675</v>
       </c>
-      <c r="F135" s="579"/>
-      <c r="G135" s="579"/>
-      <c r="H135" s="579"/>
-      <c r="I135" s="579"/>
-      <c r="J135" s="580"/>
-      <c r="K135" s="579"/>
-      <c r="L135" s="583"/>
-    </row>
-    <row r="136" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="578" t="s">
+      <c r="F135" s="469"/>
+      <c r="G135" s="469"/>
+      <c r="H135" s="469"/>
+      <c r="I135" s="469"/>
+      <c r="J135" s="470"/>
+      <c r="K135" s="469"/>
+      <c r="L135" s="473"/>
+    </row>
+    <row r="136" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="468" t="s">
         <v>1745</v>
       </c>
-      <c r="B136" s="579" t="s">
+      <c r="B136" s="469" t="s">
         <v>1676</v>
       </c>
-      <c r="C136" s="579" t="s">
+      <c r="C136" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D136" s="579" t="s">
+      <c r="D136" s="469" t="s">
         <v>1677</v>
       </c>
-      <c r="E136" s="579" t="s">
+      <c r="E136" s="469" t="s">
         <v>1678</v>
       </c>
-      <c r="F136" s="579"/>
-      <c r="G136" s="579"/>
-      <c r="H136" s="579"/>
-      <c r="I136" s="579"/>
-      <c r="J136" s="580"/>
-      <c r="K136" s="579"/>
-      <c r="L136" s="583"/>
-    </row>
-    <row r="137" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="578" t="s">
+      <c r="F136" s="469"/>
+      <c r="G136" s="469"/>
+      <c r="H136" s="469"/>
+      <c r="I136" s="469"/>
+      <c r="J136" s="470"/>
+      <c r="K136" s="469"/>
+      <c r="L136" s="473"/>
+    </row>
+    <row r="137" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="468" t="s">
         <v>1746</v>
       </c>
-      <c r="B137" s="579" t="s">
+      <c r="B137" s="469" t="s">
         <v>1679</v>
       </c>
-      <c r="C137" s="579" t="s">
+      <c r="C137" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D137" s="579" t="s">
+      <c r="D137" s="469" t="s">
         <v>1680</v>
       </c>
-      <c r="E137" s="579" t="s">
+      <c r="E137" s="469" t="s">
         <v>1681</v>
       </c>
-      <c r="F137" s="579"/>
-      <c r="G137" s="579"/>
-      <c r="H137" s="579"/>
-      <c r="I137" s="579"/>
-      <c r="J137" s="580"/>
-      <c r="K137" s="579"/>
-      <c r="L137" s="583"/>
-    </row>
-    <row r="138" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="578" t="s">
+      <c r="F137" s="469"/>
+      <c r="G137" s="469"/>
+      <c r="H137" s="469"/>
+      <c r="I137" s="469"/>
+      <c r="J137" s="470"/>
+      <c r="K137" s="469"/>
+      <c r="L137" s="473"/>
+    </row>
+    <row r="138" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="468" t="s">
         <v>1747</v>
       </c>
-      <c r="B138" s="579" t="s">
+      <c r="B138" s="469" t="s">
         <v>1682</v>
       </c>
-      <c r="C138" s="579" t="s">
+      <c r="C138" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D138" s="579" t="s">
+      <c r="D138" s="469" t="s">
         <v>1683</v>
       </c>
-      <c r="E138" s="579" t="s">
+      <c r="E138" s="469" t="s">
         <v>1684</v>
       </c>
-      <c r="F138" s="579"/>
-      <c r="G138" s="579"/>
-      <c r="H138" s="579"/>
-      <c r="I138" s="579"/>
-      <c r="J138" s="580"/>
-      <c r="K138" s="579"/>
-      <c r="L138" s="583"/>
-    </row>
-    <row r="139" spans="1:31" s="585" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="578" t="s">
+      <c r="F138" s="469"/>
+      <c r="G138" s="469"/>
+      <c r="H138" s="469"/>
+      <c r="I138" s="469"/>
+      <c r="J138" s="470"/>
+      <c r="K138" s="469"/>
+      <c r="L138" s="473"/>
+    </row>
+    <row r="139" spans="1:31" s="475" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="468" t="s">
         <v>1748</v>
       </c>
-      <c r="B139" s="579" t="s">
+      <c r="B139" s="469" t="s">
         <v>1685</v>
       </c>
-      <c r="C139" s="579" t="s">
+      <c r="C139" s="469" t="s">
         <v>1484</v>
       </c>
-      <c r="D139" s="579" t="s">
+      <c r="D139" s="469" t="s">
         <v>1686</v>
       </c>
-      <c r="E139" s="579" t="s">
+      <c r="E139" s="469" t="s">
         <v>1687</v>
       </c>
-      <c r="F139" s="579"/>
-      <c r="G139" s="579"/>
-      <c r="H139" s="579"/>
-      <c r="I139" s="579"/>
-      <c r="J139" s="580"/>
-      <c r="K139" s="579"/>
-      <c r="L139" s="583"/>
+      <c r="F139" s="469"/>
+      <c r="G139" s="469"/>
+      <c r="H139" s="469"/>
+      <c r="I139" s="469"/>
+      <c r="J139" s="470"/>
+      <c r="K139" s="469"/>
+      <c r="L139" s="473"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -65436,25 +65574,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="519" t="s">
+      <c r="C5" s="566" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="520"/>
-      <c r="E5" s="521"/>
+      <c r="D5" s="567"/>
+      <c r="E5" s="568"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="511"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="511"/>
+      <c r="H5" s="564"/>
+      <c r="I5" s="564"/>
+      <c r="J5" s="564"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="541"/>
-      <c r="D6" s="542"/>
-      <c r="E6" s="543"/>
+      <c r="C6" s="540"/>
+      <c r="D6" s="541"/>
+      <c r="E6" s="542"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -65464,23 +65602,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="522"/>
-      <c r="D7" s="523"/>
-      <c r="E7" s="524"/>
+      <c r="C7" s="569"/>
+      <c r="D7" s="570"/>
+      <c r="E7" s="571"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="511"/>
-      <c r="I7" s="511"/>
-      <c r="J7" s="511"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="564"/>
+      <c r="J7" s="564"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="525" t="s">
+      <c r="C8" s="572" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="526"/>
-      <c r="E8" s="527"/>
+      <c r="D8" s="573"/>
+      <c r="E8" s="574"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -65503,58 +65641,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="512" t="s">
+      <c r="B11" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="513"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="514"/>
-      <c r="F11" s="515"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="565"/>
+      <c r="E11" s="565"/>
+      <c r="F11" s="560"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="516"/>
-      <c r="D12" s="517"/>
-      <c r="E12" s="517"/>
-      <c r="F12" s="518"/>
+      <c r="C12" s="551"/>
+      <c r="D12" s="553"/>
+      <c r="E12" s="553"/>
+      <c r="F12" s="554"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="516"/>
-      <c r="D13" s="517"/>
-      <c r="E13" s="517"/>
-      <c r="F13" s="518"/>
+      <c r="C13" s="551"/>
+      <c r="D13" s="553"/>
+      <c r="E13" s="553"/>
+      <c r="F13" s="554"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="516"/>
-      <c r="D14" s="517"/>
-      <c r="E14" s="517"/>
-      <c r="F14" s="518"/>
+      <c r="C14" s="551"/>
+      <c r="D14" s="553"/>
+      <c r="E14" s="553"/>
+      <c r="F14" s="554"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="516"/>
-      <c r="D15" s="517"/>
-      <c r="E15" s="517"/>
-      <c r="F15" s="518"/>
+      <c r="C15" s="551"/>
+      <c r="D15" s="553"/>
+      <c r="E15" s="553"/>
+      <c r="F15" s="554"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="552"/>
-      <c r="D16" s="553"/>
-      <c r="E16" s="553"/>
-      <c r="F16" s="554"/>
+      <c r="C16" s="555"/>
+      <c r="D16" s="556"/>
+      <c r="E16" s="556"/>
+      <c r="F16" s="557"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -65564,13 +65702,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="512" t="s">
+      <c r="B18" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="513"/>
-      <c r="D18" s="513"/>
-      <c r="E18" s="513"/>
-      <c r="F18" s="515"/>
+      <c r="C18" s="559"/>
+      <c r="D18" s="559"/>
+      <c r="E18" s="559"/>
+      <c r="F18" s="560"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -65582,10 +65720,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="547" t="s">
+      <c r="E19" s="546" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="555"/>
+      <c r="F19" s="561"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -65597,10 +65735,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="516" t="s">
+      <c r="E20" s="551" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="528"/>
+      <c r="F20" s="552"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -65610,66 +65748,66 @@
         <v>80</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="516" t="s">
+      <c r="E21" s="551" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="528"/>
+      <c r="F21" s="552"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="516"/>
-      <c r="F22" s="528"/>
+      <c r="E22" s="551"/>
+      <c r="F22" s="552"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="516"/>
-      <c r="F23" s="528"/>
+      <c r="E23" s="551"/>
+      <c r="F23" s="552"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="516"/>
-      <c r="F24" s="528"/>
+      <c r="E24" s="551"/>
+      <c r="F24" s="552"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="516"/>
-      <c r="F25" s="528"/>
+      <c r="E25" s="551"/>
+      <c r="F25" s="552"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="516"/>
-      <c r="F26" s="528"/>
+      <c r="E26" s="551"/>
+      <c r="F26" s="552"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="516"/>
-      <c r="F27" s="528"/>
+      <c r="E27" s="551"/>
+      <c r="F27" s="552"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="516"/>
-      <c r="F28" s="528"/>
+      <c r="E28" s="551"/>
+      <c r="F28" s="552"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="529"/>
-      <c r="F29" s="530"/>
+      <c r="E29" s="562"/>
+      <c r="F29" s="563"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -65679,67 +65817,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="544" t="s">
+      <c r="B31" s="543" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="545"/>
-      <c r="D31" s="545"/>
-      <c r="E31" s="546"/>
+      <c r="C31" s="544"/>
+      <c r="D31" s="544"/>
+      <c r="E31" s="545"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="547" t="s">
+      <c r="C32" s="546" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="548"/>
-      <c r="E32" s="548"/>
+      <c r="D32" s="547"/>
+      <c r="E32" s="547"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="533"/>
-      <c r="D33" s="534"/>
-      <c r="E33" s="534"/>
+      <c r="C33" s="532"/>
+      <c r="D33" s="533"/>
+      <c r="E33" s="533"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="549"/>
-      <c r="D34" s="550"/>
-      <c r="E34" s="551"/>
+      <c r="C34" s="548"/>
+      <c r="D34" s="549"/>
+      <c r="E34" s="550"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="531"/>
-      <c r="D35" s="532"/>
-      <c r="E35" s="532"/>
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" s="531"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="533"/>
-      <c r="D36" s="534"/>
-      <c r="E36" s="534"/>
+      <c r="C36" s="532"/>
+      <c r="D36" s="533"/>
+      <c r="E36" s="533"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="535"/>
-      <c r="D37" s="536"/>
-      <c r="E37" s="537"/>
+      <c r="C37" s="534"/>
+      <c r="D37" s="535"/>
+      <c r="E37" s="536"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="540"/>
+      <c r="C38" s="537"/>
+      <c r="D38" s="538"/>
+      <c r="E38" s="539"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -65765,6 +65903,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -65781,22 +65935,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -69278,10 +69416,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="556" t="s">
+      <c r="A2" s="575" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="556"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
       <c r="E2" s="209"/>
@@ -69503,10 +69641,10 @@
       <c r="K12" s="205"/>
     </row>
     <row r="13" spans="1:11" s="191" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="556" t="s">
+      <c r="A13" s="575" t="s">
         <v>742</v>
       </c>
-      <c r="B13" s="556"/>
+      <c r="B13" s="575"/>
       <c r="C13" s="218"/>
       <c r="D13" s="218"/>
       <c r="E13" s="218"/>
